--- a/approach2_exp/job_suggestions/candidate_3.xlsx
+++ b/approach2_exp/job_suggestions/candidate_3.xlsx
@@ -452,23 +452,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="n">
